--- a/Midterm-exam/evidence/spreadsheets/per_site/www.gjerdrum.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.gjerdrum.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5740.5255</v>
+        <v>5927.8395</v>
       </c>
       <c r="C2">
-        <v>4581.8815</v>
+        <v>4577.5995</v>
       </c>
       <c r="D2">
-        <v>544</v>
+        <v>632</v>
       </c>
       <c r="E2">
-        <v>10643.21285</v>
+        <v>11825.793099999999</v>
       </c>
       <c r="F2">
-        <v>145</v>
+        <v>145.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5496.820289490723</v>
+        <v>6017.53653038973</v>
       </c>
       <c r="I2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>1387237</v>
+        <v>1538803</v>
       </c>
       <c r="K2">
         <v>34</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5880.6435</v>
+        <v>5519.641500000001</v>
       </c>
       <c r="C3">
-        <v>4401.181500000001</v>
+        <v>4548.3445</v>
       </c>
       <c r="D3">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="E3">
-        <v>10074.6883</v>
+        <v>10188.816050000001</v>
       </c>
       <c r="F3">
-        <v>143.5000000000009</v>
+        <v>99.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5096.136771285905</v>
+        <v>5220.587669937412</v>
       </c>
       <c r="I3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>1387240</v>
+        <v>1516835</v>
       </c>
       <c r="K3">
         <v>34</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5709.565</v>
+        <v>5704.558999999999</v>
       </c>
       <c r="C4">
-        <v>4554.290999999999</v>
+        <v>4365.467000000001</v>
       </c>
       <c r="D4">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E4">
-        <v>10136.7228</v>
+        <v>10241.678750000001</v>
       </c>
       <c r="F4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5120.494667739914</v>
+        <v>5389.256512500952</v>
       </c>
       <c r="I4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4">
-        <v>1365523</v>
+        <v>1516883</v>
       </c>
       <c r="K4">
         <v>34</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>5740.5255</v>
+        <v>5704.558999999999</v>
       </c>
       <c r="C5">
-        <v>4554.290999999999</v>
+        <v>4548.3445</v>
       </c>
       <c r="D5">
-        <v>555</v>
+        <v>627</v>
       </c>
       <c r="E5">
-        <v>10136.7228</v>
+        <v>10241.678750000001</v>
       </c>
       <c r="F5">
-        <v>143.5000000000009</v>
+        <v>123</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5120.494667739914</v>
+        <v>5389.256512500952</v>
       </c>
       <c r="I5">
         <v>65</v>
       </c>
       <c r="J5">
-        <v>1387237</v>
+        <v>1516883</v>
       </c>
       <c r="K5">
         <v>34</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>67364</v>
+        <v>67279</v>
       </c>
       <c r="F2">
-        <v>66995</v>
+        <v>66910</v>
       </c>
       <c r="G2">
-        <v>0.019590326932</v>
+        <v>0.019565607827</v>
       </c>
       <c r="H2">
-        <v>0.0258058954296</v>
+        <v>0.025773333510600006</v>
       </c>
     </row>
     <row r="3">
@@ -969,16 +969,16 @@
         <v>application/json</v>
       </c>
       <c r="E15">
-        <v>88183</v>
+        <v>79660</v>
       </c>
       <c r="F15">
-        <v>1022987</v>
+        <v>923743</v>
       </c>
       <c r="G15">
-        <v>0.025644762778999994</v>
+        <v>0.023166163579999996</v>
       </c>
       <c r="H15">
-        <v>0.03378126709620001</v>
+        <v>0.030516264324000005</v>
       </c>
     </row>
     <row r="16">
@@ -995,16 +995,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E16">
-        <v>13614</v>
+        <v>13622</v>
       </c>
       <c r="F16">
         <v>45188</v>
       </c>
       <c r="G16">
-        <v>0.003959128181999999</v>
+        <v>0.0039614546859999995</v>
       </c>
       <c r="H16">
-        <v>0.005215270179600001</v>
+        <v>0.005218334830800001</v>
       </c>
     </row>
     <row r="17">
@@ -1012,25 +1012,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2Fa9475d6a714946c4875e49a935b419e0%2Fparagraph-684509_1280.jpg</v>
+        <v>https://www.gjerdrum.kommune.no/globalassets/bilder/logo/gjerdrum-logo-1.svg</v>
       </c>
       <c r="C17" t="str">
         <v>Image</v>
       </c>
       <c r="D17" t="str">
-        <v>image/jpeg</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E17">
-        <v>12191</v>
+        <v>7351</v>
       </c>
       <c r="F17">
-        <v>11602</v>
+        <v>6976</v>
       </c>
       <c r="G17">
-        <v>0.0035453012829999996</v>
+        <v>0.0021377663629999996</v>
       </c>
       <c r="H17">
-        <v>0.004670145347400001</v>
+        <v>0.0028160313714</v>
       </c>
     </row>
     <row r="18">
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F7d6dd50c1fbf469ca262acd667dd1bcc%2Fdaniel-berg-hansen-2.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F19b807c78b44443c92d2f0e9716c6a7e%2Faretsarkiv2025-3.jpg</v>
       </c>
       <c r="C18" t="str">
         <v>Image</v>
@@ -1047,16 +1047,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E18">
-        <v>38168</v>
+        <v>24276</v>
       </c>
       <c r="F18">
-        <v>37562</v>
+        <v>23679</v>
       </c>
       <c r="G18">
-        <v>0.011099750584</v>
+        <v>0.007059776387999999</v>
       </c>
       <c r="H18">
-        <v>0.0146214508752</v>
+        <v>0.0092996840664</v>
       </c>
     </row>
     <row r="19">
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F9bb9c68b67c24784aaa648ed070fe877%2Fheaderbilde-nettside_64.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F02bd098ec5014db0902a880ca003e948%2Fgjerdrum-kommune-beskjart-jpeg_baw_029.jpg</v>
       </c>
       <c r="C19" t="str">
         <v>Image</v>
@@ -1073,16 +1073,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E19">
-        <v>25337</v>
+        <v>31297</v>
       </c>
       <c r="F19">
-        <v>24740</v>
+        <v>30699</v>
       </c>
       <c r="G19">
-        <v>0.007368328980999999</v>
+        <v>0.009101574460999998</v>
       </c>
       <c r="H19">
-        <v>0.0097061334318</v>
+        <v>0.011989298575800002</v>
       </c>
     </row>
     <row r="20">
@@ -1090,25 +1090,25 @@
         <v>1</v>
       </c>
       <c r="B20" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2Fa9475d6a714946c4875e49a935b419e0%2Fparagraph-684509_1280.jpg</v>
       </c>
       <c r="C20" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D20" t="str">
-        <v>text/css</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E20">
-        <v>22057</v>
+        <v>12192</v>
       </c>
       <c r="F20">
-        <v>255939</v>
+        <v>11602</v>
       </c>
       <c r="G20">
-        <v>0.006414462340999999</v>
+        <v>0.003545592096</v>
       </c>
       <c r="H20">
-        <v>0.0084496264398</v>
+        <v>0.0046705284288</v>
       </c>
     </row>
     <row r="21">
@@ -1116,25 +1116,25 @@
         <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
       </c>
       <c r="C21" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D21" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E21">
-        <v>325285</v>
+        <v>22174</v>
       </c>
       <c r="F21">
-        <v>1249958</v>
+        <v>257200</v>
       </c>
       <c r="G21">
-        <v>0.09459710670499999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H21">
-        <v>0.124610633199</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="22">
@@ -1142,25 +1142,25 @@
         <v>1</v>
       </c>
       <c r="B22" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1092&amp;luid=3e3a3dcb-6500-237f-e846-83be5a0e9de9&amp;dnt=true&amp;prev=93822d1c-0d3c-fed2-44ff-36f43805217e&amp;rnd=73071</v>
+        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
       </c>
       <c r="C22" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D22" t="str">
-        <v>image/gif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E22">
-        <v>210</v>
+        <v>325285</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>1249958</v>
       </c>
       <c r="G22">
-        <v>0.00006107072999999999</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H22">
-        <v>0.00008044709400000001</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="23">
@@ -1168,25 +1168,25 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.gjerdrum.kommune.no/globalassets/bilder/logo/gjerdrum-logo-1.svg</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1192&amp;luid=dd6fd993-48aa-3153-3f3c-3107f3a8505f&amp;dnt=true&amp;prev=f2725416-30b1-a4b5-00d3-8d54dfcc6eaf&amp;rnd=84894</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
       </c>
       <c r="D23" t="str">
-        <v>image/svg+xml</v>
+        <v>image/gif</v>
       </c>
       <c r="E23">
-        <v>7351</v>
+        <v>210</v>
       </c>
       <c r="F23">
-        <v>6976</v>
+        <v>34</v>
       </c>
       <c r="G23">
-        <v>0.0021377663629999996</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H23">
-        <v>0.0028160313714</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="24">
@@ -1422,25 +1422,25 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2F%C3%85pen%20hall_3dc1.JPG</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFredagsshopping%20(Facebook-innlegg)_8cd4.png</v>
       </c>
       <c r="C33" t="str">
         <v>Image</v>
       </c>
       <c r="D33" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E33">
-        <v>28651</v>
+        <v>98093</v>
       </c>
       <c r="F33">
-        <v>28077</v>
+        <v>97569</v>
       </c>
       <c r="G33">
-        <v>0.008332083262999997</v>
+        <v>0.028526719609</v>
       </c>
       <c r="H33">
-        <v>0.0109756651914</v>
+        <v>0.0375776037702</v>
       </c>
     </row>
     <row r="34">
@@ -1448,25 +1448,25 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FDepresjonsmestring_013c.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFelles%20Lytt%20og%20les%20Bok%20og%20kaffe%20fredag%2014.11%20kl.%2011%20i%20Frivilligsentralen.%20Ole%20J%C3%B8ran%20Smedstad%20snakker%20om%20Korea.%20%C3%85pent%20for%20alle%20og%20gratis%20adgang._4cc8.png</v>
       </c>
       <c r="C34" t="str">
         <v>Image</v>
       </c>
       <c r="D34" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E34">
-        <v>14448</v>
+        <v>88985</v>
       </c>
       <c r="F34">
-        <v>13882</v>
+        <v>88372</v>
       </c>
       <c r="G34">
-        <v>0.004201666223999999</v>
+        <v>0.025877994805</v>
       </c>
       <c r="H34">
-        <v>0.0055347600672000005</v>
+        <v>0.03408849837900001</v>
       </c>
     </row>
     <row r="35">
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DBFA92DF4DCC918C63799AD61448DE849F03BA993_177136531.png%26dh%3D296%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D45852B90098230AAAE8E38EC4AF6035E7F021693_659176519.png%26dh%3D364%26dw%3D686</v>
       </c>
       <c r="C35" t="str">
         <v>Image</v>
@@ -1483,16 +1483,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E35">
-        <v>18428</v>
+        <v>42429</v>
       </c>
       <c r="F35">
-        <v>17852</v>
+        <v>41843</v>
       </c>
       <c r="G35">
-        <v>0.005359101963999999</v>
+        <v>0.012338904776999999</v>
       </c>
       <c r="H35">
-        <v>0.007059424039200001</v>
+        <v>0.016253760720600002</v>
       </c>
     </row>
     <row r="36">
@@ -1509,16 +1509,16 @@
         <v>text/html</v>
       </c>
       <c r="E36">
-        <v>67364</v>
+        <v>67279</v>
       </c>
       <c r="F36">
-        <v>66995</v>
+        <v>66910</v>
       </c>
       <c r="G36">
-        <v>0.019590326932</v>
+        <v>0.019565607827</v>
       </c>
       <c r="H36">
-        <v>0.0258058954296</v>
+        <v>0.025773333510600006</v>
       </c>
     </row>
     <row r="37">
@@ -1561,16 +1561,16 @@
         <v>text/css</v>
       </c>
       <c r="E38">
-        <v>26253</v>
+        <v>4534</v>
       </c>
       <c r="F38">
         <v>25942</v>
       </c>
       <c r="G38">
-        <v>0.007634713688999999</v>
+        <v>0.001318546142</v>
       </c>
       <c r="H38">
-        <v>0.0100570359942</v>
+        <v>0.0017368910676000002</v>
       </c>
     </row>
     <row r="39">
@@ -1714,16 +1714,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E44">
-        <v>121617</v>
+        <v>121655</v>
       </c>
       <c r="F44">
         <v>120985</v>
       </c>
       <c r="G44">
-        <v>0.035367804621</v>
+        <v>0.035378855514999995</v>
       </c>
       <c r="H44">
-        <v>0.046589210623800004</v>
+        <v>0.046603767717</v>
       </c>
     </row>
     <row r="45">
@@ -1870,16 +1870,16 @@
         <v>application/json</v>
       </c>
       <c r="E50">
-        <v>88183</v>
+        <v>79660</v>
       </c>
       <c r="F50">
-        <v>1022987</v>
+        <v>923743</v>
       </c>
       <c r="G50">
-        <v>0.025644762778999994</v>
+        <v>0.023166163579999996</v>
       </c>
       <c r="H50">
-        <v>0.03378126709620001</v>
+        <v>0.030516264324000005</v>
       </c>
     </row>
     <row r="51">
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2Fa9475d6a714946c4875e49a935b419e0%2Fparagraph-684509_1280.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F19b807c78b44443c92d2f0e9716c6a7e%2Faretsarkiv2025-3.jpg</v>
       </c>
       <c r="C52" t="str">
         <v>Image</v>
@@ -1922,16 +1922,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E52">
-        <v>12192</v>
+        <v>24313</v>
       </c>
       <c r="F52">
-        <v>11602</v>
+        <v>23679</v>
       </c>
       <c r="G52">
-        <v>0.003545592096</v>
+        <v>0.007070536468999999</v>
       </c>
       <c r="H52">
-        <v>0.0046705284288</v>
+        <v>0.0093138580782</v>
       </c>
     </row>
     <row r="53">
@@ -1939,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F7d6dd50c1fbf469ca262acd667dd1bcc%2Fdaniel-berg-hansen-2.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F02bd098ec5014db0902a880ca003e948%2Fgjerdrum-kommune-beskjart-jpeg_baw_029.jpg</v>
       </c>
       <c r="C53" t="str">
         <v>Image</v>
@@ -1948,16 +1948,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E53">
-        <v>38168</v>
+        <v>31333</v>
       </c>
       <c r="F53">
-        <v>37562</v>
+        <v>30699</v>
       </c>
       <c r="G53">
-        <v>0.011099750584</v>
+        <v>0.009112043728999998</v>
       </c>
       <c r="H53">
-        <v>0.0146214508752</v>
+        <v>0.012003089506200002</v>
       </c>
     </row>
     <row r="54">
@@ -1965,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F9bb9c68b67c24784aaa648ed070fe877%2Fheaderbilde-nettside_64.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2Fa9475d6a714946c4875e49a935b419e0%2Fparagraph-684509_1280.jpg</v>
       </c>
       <c r="C54" t="str">
         <v>Image</v>
@@ -1974,16 +1974,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E54">
-        <v>25337</v>
+        <v>12229</v>
       </c>
       <c r="F54">
-        <v>24740</v>
+        <v>11602</v>
       </c>
       <c r="G54">
-        <v>0.007368328980999999</v>
+        <v>0.0035563521769999993</v>
       </c>
       <c r="H54">
-        <v>0.0097061334318</v>
+        <v>0.0046847024406</v>
       </c>
     </row>
     <row r="55">
@@ -2000,16 +2000,16 @@
         <v>text/css</v>
       </c>
       <c r="E55">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F55">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G55">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H55">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="56">
@@ -2026,16 +2026,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E56">
-        <v>325285</v>
+        <v>325276</v>
       </c>
       <c r="F56">
         <v>1249958</v>
       </c>
       <c r="G56">
-        <v>0.09459710670499999</v>
+        <v>0.09459448938799998</v>
       </c>
       <c r="H56">
-        <v>0.124610633199</v>
+        <v>0.1246071854664</v>
       </c>
     </row>
     <row r="57">
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1128&amp;luid=0c71ab04-664f-8887-4589-27a00346df00&amp;dnt=true&amp;prev=732480bd-7271-eca3-d3b6-30d0cee0d131&amp;rnd=88289</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1124&amp;luid=c8853ef1-0a27-0f35-33a1-9e4dd9ac8197&amp;dnt=true&amp;prev=2496c8dc-3ee8-080f-5e71-aad4649ae7ac&amp;rnd=1620</v>
       </c>
       <c r="C57" t="str">
         <v>Image</v>
@@ -2104,16 +2104,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E59">
-        <v>2448</v>
+        <v>2065</v>
       </c>
       <c r="F59">
         <v>7227</v>
       </c>
       <c r="G59">
-        <v>0.0007119102239999999</v>
+        <v>0.0006005288449999999</v>
       </c>
       <c r="H59">
-        <v>0.0009377832672000001</v>
+        <v>0.0007910630910000001</v>
       </c>
     </row>
     <row r="60">
@@ -2179,16 +2179,16 @@
         <v>text/json</v>
       </c>
       <c r="E62">
-        <v>7415</v>
+        <v>7416</v>
       </c>
       <c r="F62">
         <v>28951</v>
       </c>
       <c r="G62">
-        <v>0.0021563783949999998</v>
+        <v>0.0021566692079999995</v>
       </c>
       <c r="H62">
-        <v>0.0028405485810000003</v>
+        <v>0.0028409316624000004</v>
       </c>
     </row>
     <row r="63">
@@ -2271,25 +2271,25 @@
         <v>2</v>
       </c>
       <c r="B66" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2F%C3%85pen%20hall_3dc1.JPG</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFredagsshopping%20(Facebook-innlegg)_8cd4.png</v>
       </c>
       <c r="C66" t="str">
         <v>Image</v>
       </c>
       <c r="D66" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E66">
-        <v>28651</v>
+        <v>98093</v>
       </c>
       <c r="F66">
-        <v>28077</v>
+        <v>97569</v>
       </c>
       <c r="G66">
-        <v>0.008332083262999997</v>
+        <v>0.028526719609</v>
       </c>
       <c r="H66">
-        <v>0.0109756651914</v>
+        <v>0.0375776037702</v>
       </c>
     </row>
     <row r="67">
@@ -2297,25 +2297,25 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FDepresjonsmestring_013c.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFelles%20Lytt%20og%20les%20Bok%20og%20kaffe%20fredag%2014.11%20kl.%2011%20i%20Frivilligsentralen.%20Ole%20J%C3%B8ran%20Smedstad%20snakker%20om%20Korea.%20%C3%85pent%20for%20alle%20og%20gratis%20adgang._4cc8.png</v>
       </c>
       <c r="C67" t="str">
         <v>Image</v>
       </c>
       <c r="D67" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E67">
-        <v>14448</v>
+        <v>88985</v>
       </c>
       <c r="F67">
-        <v>13882</v>
+        <v>88372</v>
       </c>
       <c r="G67">
-        <v>0.004201666223999999</v>
+        <v>0.025877994805</v>
       </c>
       <c r="H67">
-        <v>0.0055347600672000005</v>
+        <v>0.03408849837900001</v>
       </c>
     </row>
     <row r="68">
@@ -2323,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DBFA92DF4DCC918C63799AD61448DE849F03BA993_177136531.png%26dh%3D296%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D45852B90098230AAAE8E38EC4AF6035E7F021693_659176519.png%26dh%3D364%26dw%3D686</v>
       </c>
       <c r="C68" t="str">
         <v>Image</v>
@@ -2332,16 +2332,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E68">
-        <v>18428</v>
+        <v>42429</v>
       </c>
       <c r="F68">
-        <v>17852</v>
+        <v>41843</v>
       </c>
       <c r="G68">
-        <v>0.005359101963999999</v>
+        <v>0.012338904776999999</v>
       </c>
       <c r="H68">
-        <v>0.007059424039200001</v>
+        <v>0.016253760720600002</v>
       </c>
     </row>
     <row r="69">
@@ -2384,16 +2384,16 @@
         <v>text/html</v>
       </c>
       <c r="E70">
-        <v>67364</v>
+        <v>67279</v>
       </c>
       <c r="F70">
-        <v>66995</v>
+        <v>66910</v>
       </c>
       <c r="G70">
-        <v>0.019590326932</v>
+        <v>0.019565607827</v>
       </c>
       <c r="H70">
-        <v>0.0258058954296</v>
+        <v>0.025773333510600006</v>
       </c>
     </row>
     <row r="71">
@@ -2589,16 +2589,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>121617</v>
+        <v>121673</v>
       </c>
       <c r="F78">
         <v>120985</v>
       </c>
       <c r="G78">
-        <v>0.035367804621</v>
+        <v>0.03538409014899999</v>
       </c>
       <c r="H78">
-        <v>0.046589210623800004</v>
+        <v>0.0466106631822</v>
       </c>
     </row>
     <row r="79">
@@ -2615,16 +2615,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E79">
-        <v>49194</v>
+        <v>49167</v>
       </c>
       <c r="F79">
         <v>137885</v>
       </c>
       <c r="G79">
-        <v>0.014306254721999997</v>
+        <v>0.014298402770999998</v>
       </c>
       <c r="H79">
-        <v>0.0188453063916</v>
+        <v>0.018834963193800004</v>
       </c>
     </row>
     <row r="80">
@@ -2710,25 +2710,25 @@
         <v>3</v>
       </c>
       <c r="B83" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=0&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=Gjerdrum&amp;Kunde=oru&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=100&amp;Distributor=</v>
+        <v>https://www.gjerdrum.kommune.no/globalassets/bilder/logo/gjerdrum-logo-1.svg</v>
       </c>
       <c r="C83" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D83" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E83">
-        <v>88183</v>
+        <v>7351</v>
       </c>
       <c r="F83">
-        <v>1022987</v>
+        <v>6976</v>
       </c>
       <c r="G83">
-        <v>0.025644762778999994</v>
+        <v>0.0021377663629999996</v>
       </c>
       <c r="H83">
-        <v>0.03378126709620001</v>
+        <v>0.0028160313714</v>
       </c>
     </row>
     <row r="84">
@@ -2736,25 +2736,25 @@
         <v>3</v>
       </c>
       <c r="B84" t="str">
-        <v>https://siteimproveanalytics.com/js/siteanalyze_6019370.js</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=0&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=Gjerdrum&amp;Kunde=oru&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=100&amp;Distributor=</v>
       </c>
       <c r="C84" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D84" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E84">
-        <v>13620</v>
+        <v>79660</v>
       </c>
       <c r="F84">
-        <v>45188</v>
+        <v>923743</v>
       </c>
       <c r="G84">
-        <v>0.00396087306</v>
+        <v>0.023166163579999996</v>
       </c>
       <c r="H84">
-        <v>0.0052175686680000005</v>
+        <v>0.030516264324000005</v>
       </c>
     </row>
     <row r="85">
@@ -2762,25 +2762,25 @@
         <v>3</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.gjerdrum.kommune.no/globalassets/bilder/logo/gjerdrum-logo-1.svg</v>
+        <v>https://siteimproveanalytics.com/js/siteanalyze_6019370.js</v>
       </c>
       <c r="C85" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D85" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E85">
-        <v>7351</v>
+        <v>13619</v>
       </c>
       <c r="F85">
-        <v>6976</v>
+        <v>45188</v>
       </c>
       <c r="G85">
-        <v>0.0021377663629999996</v>
+        <v>0.003960582247</v>
       </c>
       <c r="H85">
-        <v>0.0028160313714</v>
+        <v>0.0052171855866</v>
       </c>
     </row>
     <row r="86">
@@ -2788,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2Fa9475d6a714946c4875e49a935b419e0%2Fparagraph-684509_1280.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F19b807c78b44443c92d2f0e9716c6a7e%2Faretsarkiv2025-3.jpg</v>
       </c>
       <c r="C86" t="str">
         <v>Image</v>
@@ -2797,16 +2797,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E86">
-        <v>12191</v>
+        <v>24280</v>
       </c>
       <c r="F86">
-        <v>11602</v>
+        <v>23679</v>
       </c>
       <c r="G86">
-        <v>0.0035453012829999996</v>
+        <v>0.007060939639999999</v>
       </c>
       <c r="H86">
-        <v>0.004670145347400001</v>
+        <v>0.009301216392</v>
       </c>
     </row>
     <row r="87">
@@ -2814,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F7d6dd50c1fbf469ca262acd667dd1bcc%2Fdaniel-berg-hansen-2.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F02bd098ec5014db0902a880ca003e948%2Fgjerdrum-kommune-beskjart-jpeg_baw_029.jpg</v>
       </c>
       <c r="C87" t="str">
         <v>Image</v>
@@ -2823,16 +2823,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E87">
-        <v>38168</v>
+        <v>31297</v>
       </c>
       <c r="F87">
-        <v>37562</v>
+        <v>30699</v>
       </c>
       <c r="G87">
-        <v>0.011099750584</v>
+        <v>0.009101574460999998</v>
       </c>
       <c r="H87">
-        <v>0.0146214508752</v>
+        <v>0.011989298575800002</v>
       </c>
     </row>
     <row r="88">
@@ -2840,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F9bb9c68b67c24784aaa648ed070fe877%2Fheaderbilde-nettside_64.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2Fa9475d6a714946c4875e49a935b419e0%2Fparagraph-684509_1280.jpg</v>
       </c>
       <c r="C88" t="str">
         <v>Image</v>
@@ -2849,16 +2849,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E88">
-        <v>25337</v>
+        <v>12229</v>
       </c>
       <c r="F88">
-        <v>24740</v>
+        <v>11602</v>
       </c>
       <c r="G88">
-        <v>0.007368328980999999</v>
+        <v>0.0035563521769999993</v>
       </c>
       <c r="H88">
-        <v>0.0097061334318</v>
+        <v>0.0046847024406</v>
       </c>
     </row>
     <row r="89">
@@ -2875,16 +2875,16 @@
         <v>text/css</v>
       </c>
       <c r="E89">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F89">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G89">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H89">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="90">
@@ -2918,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1155&amp;luid=a31e9d67-f884-0839-665c-a6b4c7e4b8c1&amp;dnt=true&amp;prev=8bad54cb-6207-476f-1697-aa3b4ba6e43a&amp;rnd=67151</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1183&amp;luid=2dc17396-0163-4206-0a24-a141e5e6887f&amp;dnt=true&amp;prev=4a670bfe-3235-f522-c114-6ded6d2130a3&amp;rnd=96283</v>
       </c>
       <c r="C91" t="str">
         <v>Image</v>
@@ -2979,16 +2979,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E93">
-        <v>2448</v>
+        <v>2065</v>
       </c>
       <c r="F93">
         <v>7227</v>
       </c>
       <c r="G93">
-        <v>0.0007119102239999999</v>
+        <v>0.0006005288449999999</v>
       </c>
       <c r="H93">
-        <v>0.0009377832672000001</v>
+        <v>0.0007910630910000001</v>
       </c>
     </row>
     <row r="94">
@@ -3054,16 +3054,16 @@
         <v>text/json</v>
       </c>
       <c r="E96">
-        <v>7415</v>
+        <v>7416</v>
       </c>
       <c r="F96">
         <v>28951</v>
       </c>
       <c r="G96">
-        <v>0.0021563783949999998</v>
+        <v>0.0021566692079999995</v>
       </c>
       <c r="H96">
-        <v>0.0028405485810000003</v>
+        <v>0.0028409316624000004</v>
       </c>
     </row>
     <row r="97">
@@ -3146,25 +3146,25 @@
         <v>3</v>
       </c>
       <c r="B100" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2F%C3%85pen%20hall_3dc1.JPG</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFredagsshopping%20(Facebook-innlegg)_8cd4.png</v>
       </c>
       <c r="C100" t="str">
         <v>Image</v>
       </c>
       <c r="D100" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E100">
-        <v>28651</v>
+        <v>98149</v>
       </c>
       <c r="F100">
-        <v>28077</v>
+        <v>97569</v>
       </c>
       <c r="G100">
-        <v>0.008332083262999997</v>
+        <v>0.028543005136999994</v>
       </c>
       <c r="H100">
-        <v>0.0109756651914</v>
+        <v>0.0375990563286</v>
       </c>
     </row>
     <row r="101">
@@ -3172,25 +3172,25 @@
         <v>3</v>
       </c>
       <c r="B101" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FDepresjonsmestring_013c.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFelles%20Lytt%20og%20les%20Bok%20og%20kaffe%20fredag%2014.11%20kl.%2011%20i%20Frivilligsentralen.%20Ole%20J%C3%B8ran%20Smedstad%20snakker%20om%20Korea.%20%C3%85pent%20for%20alle%20og%20gratis%20adgang._4cc8.png</v>
       </c>
       <c r="C101" t="str">
         <v>Image</v>
       </c>
       <c r="D101" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E101">
-        <v>14448</v>
+        <v>89031</v>
       </c>
       <c r="F101">
-        <v>13882</v>
+        <v>88372</v>
       </c>
       <c r="G101">
-        <v>0.004201666223999999</v>
+        <v>0.025891372202999998</v>
       </c>
       <c r="H101">
-        <v>0.0055347600672000005</v>
+        <v>0.0341061201234</v>
       </c>
     </row>
     <row r="102">
@@ -3198,7 +3198,7 @@
         <v>3</v>
       </c>
       <c r="B102" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DBFA92DF4DCC918C63799AD61448DE849F03BA993_177136531.png%26dh%3D296%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D45852B90098230AAAE8E38EC4AF6035E7F021693_659176519.png%26dh%3D364%26dw%3D686</v>
       </c>
       <c r="C102" t="str">
         <v>Image</v>
@@ -3207,16 +3207,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E102">
-        <v>18428</v>
+        <v>42442</v>
       </c>
       <c r="F102">
-        <v>17852</v>
+        <v>41843</v>
       </c>
       <c r="G102">
-        <v>0.005359101963999999</v>
+        <v>0.012342685345999999</v>
       </c>
       <c r="H102">
-        <v>0.007059424039200001</v>
+        <v>0.0162587407788</v>
       </c>
     </row>
     <row r="103">
@@ -3281,10 +3281,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>202092</v>
+        <v>201837</v>
       </c>
       <c r="D2">
-        <v>200985</v>
+        <v>200730</v>
       </c>
     </row>
     <row r="3">
@@ -3295,7 +3295,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>259081</v>
+        <v>237362</v>
       </c>
       <c r="D3">
         <v>1323141</v>
@@ -3309,7 +3309,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>2311023</v>
+        <v>2310228</v>
       </c>
       <c r="D4">
         <v>8553867</v>
@@ -3337,10 +3337,10 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>879505</v>
+        <v>1360011</v>
       </c>
       <c r="D6">
-        <v>863172</v>
+        <v>1343319</v>
       </c>
     </row>
     <row r="7">
@@ -3351,10 +3351,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>330720</v>
+        <v>305502</v>
       </c>
       <c r="D7">
-        <v>3836778</v>
+        <v>3542829</v>
       </c>
     </row>
     <row r="8">
@@ -3379,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>22246</v>
+        <v>22248</v>
       </c>
       <c r="D9">
         <v>86853</v>
@@ -3446,13 +3446,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1387237</v>
+        <v>1538803</v>
       </c>
       <c r="C2">
-        <v>0.40342655368099994</v>
+        <v>0.447503916839</v>
       </c>
       <c r="D2">
-        <v>0.5314246920918</v>
+        <v>0.5894868075642001</v>
       </c>
     </row>
     <row r="3">
@@ -3460,13 +3460,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1387240</v>
+        <v>1516835</v>
       </c>
       <c r="C3">
-        <v>0.40342742611999993</v>
+        <v>0.441115336855</v>
       </c>
       <c r="D3">
-        <v>0.531425841336</v>
+        <v>0.5810712753690002</v>
       </c>
     </row>
     <row r="4">
@@ -3474,13 +3474,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1365523</v>
+        <v>1516883</v>
       </c>
       <c r="C4">
-        <v>0.3971118401989999</v>
+        <v>0.44112929587899996</v>
       </c>
       <c r="D4">
-        <v>0.5231064625722</v>
+        <v>0.5810896632761999</v>
       </c>
     </row>
     <row r="5">
@@ -3488,13 +3488,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1387237</v>
+        <v>1516883</v>
       </c>
       <c r="C5">
-        <v>0.40342655368099994</v>
+        <v>0.44112929587899996</v>
       </c>
       <c r="D5">
-        <v>0.5314246920918</v>
+        <v>0.5810896632761999</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.gjerdrum.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.gjerdrum.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5927.8395</v>
+        <v>5749.9135</v>
       </c>
       <c r="C2">
-        <v>4577.5995</v>
+        <v>4401.7445</v>
       </c>
       <c r="D2">
-        <v>632</v>
+        <v>548</v>
       </c>
       <c r="E2">
-        <v>11825.793099999999</v>
+        <v>10274.29395</v>
       </c>
       <c r="F2">
-        <v>145.5</v>
+        <v>151</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6017.53653038973</v>
+        <v>5306.717231402106</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2">
-        <v>1538803</v>
+        <v>1517080</v>
       </c>
       <c r="K2">
         <v>34</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5519.641500000001</v>
+        <v>5712.106000000001</v>
       </c>
       <c r="C3">
-        <v>4548.3445</v>
+        <v>4572.685</v>
       </c>
       <c r="D3">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="E3">
-        <v>10188.816050000001</v>
+        <v>10260.8485</v>
       </c>
       <c r="F3">
-        <v>99.5</v>
+        <v>164.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5220.587669937412</v>
+        <v>5356.374838337938</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3">
-        <v>1516835</v>
+        <v>1517083</v>
       </c>
       <c r="K3">
         <v>34</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5704.558999999999</v>
+        <v>6098.139</v>
       </c>
       <c r="C4">
-        <v>4365.467000000001</v>
+        <v>4556.127</v>
       </c>
       <c r="D4">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="E4">
-        <v>10241.678750000001</v>
+        <v>10358.01035</v>
       </c>
       <c r="F4">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5389.256512500952</v>
+        <v>5270.846299576082</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4">
-        <v>1516883</v>
+        <v>1515985</v>
       </c>
       <c r="K4">
         <v>34</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>5704.558999999999</v>
+        <v>5749.9135</v>
       </c>
       <c r="C5">
-        <v>4548.3445</v>
+        <v>4556.127</v>
       </c>
       <c r="D5">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="E5">
-        <v>10241.678750000001</v>
+        <v>10274.29395</v>
       </c>
       <c r="F5">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5389.256512500952</v>
+        <v>5306.717231402106</v>
       </c>
       <c r="I5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5">
-        <v>1516883</v>
+        <v>1517080</v>
       </c>
       <c r="K5">
         <v>34</v>
@@ -686,16 +686,16 @@
         <v>text/css</v>
       </c>
       <c r="E4">
-        <v>26253</v>
+        <v>4534</v>
       </c>
       <c r="F4">
         <v>25942</v>
       </c>
       <c r="G4">
-        <v>0.007634713688999999</v>
+        <v>0.001318546142</v>
       </c>
       <c r="H4">
-        <v>0.0100570359942</v>
+        <v>0.0017368910676000002</v>
       </c>
     </row>
     <row r="5">
@@ -960,25 +960,25 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=0&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=Gjerdrum&amp;Kunde=oru&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=100&amp;Distributor=</v>
+        <v>https://www.gjerdrum.kommune.no/globalassets/bilder/logo/gjerdrum-logo-1.svg</v>
       </c>
       <c r="C15" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D15" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E15">
-        <v>79660</v>
+        <v>7351</v>
       </c>
       <c r="F15">
-        <v>923743</v>
+        <v>6976</v>
       </c>
       <c r="G15">
-        <v>0.023166163579999996</v>
+        <v>0.0021377663629999996</v>
       </c>
       <c r="H15">
-        <v>0.030516264324000005</v>
+        <v>0.0028160313714</v>
       </c>
     </row>
     <row r="16">
@@ -986,25 +986,25 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>https://siteimproveanalytics.com/js/siteanalyze_6019370.js</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=0&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=Gjerdrum&amp;Kunde=oru&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=100&amp;Distributor=</v>
       </c>
       <c r="C16" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D16" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E16">
-        <v>13622</v>
+        <v>79660</v>
       </c>
       <c r="F16">
-        <v>45188</v>
+        <v>923743</v>
       </c>
       <c r="G16">
-        <v>0.0039614546859999995</v>
+        <v>0.023166163579999996</v>
       </c>
       <c r="H16">
-        <v>0.005218334830800001</v>
+        <v>0.030516264324000005</v>
       </c>
     </row>
     <row r="17">
@@ -1012,25 +1012,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.gjerdrum.kommune.no/globalassets/bilder/logo/gjerdrum-logo-1.svg</v>
+        <v>https://siteimproveanalytics.com/js/siteanalyze_6019370.js</v>
       </c>
       <c r="C17" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D17" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E17">
-        <v>7351</v>
+        <v>13620</v>
       </c>
       <c r="F17">
-        <v>6976</v>
+        <v>45188</v>
       </c>
       <c r="G17">
-        <v>0.0021377663629999996</v>
+        <v>0.00396087306</v>
       </c>
       <c r="H17">
-        <v>0.0028160313714</v>
+        <v>0.0052175686680000005</v>
       </c>
     </row>
     <row r="18">
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1192&amp;luid=dd6fd993-48aa-3153-3f3c-3107f3a8505f&amp;dnt=true&amp;prev=f2725416-30b1-a4b5-00d3-8d54dfcc6eaf&amp;rnd=84894</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1133&amp;luid=388c2dd6-7294-7939-f94c-224f0b3db49b&amp;dnt=true&amp;prev=ed50364b-ef1d-c84f-e0c0-7b316e53c5e0&amp;rnd=50019</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
@@ -1304,16 +1304,16 @@
         <v>text/json</v>
       </c>
       <c r="E28">
-        <v>7416</v>
+        <v>7415</v>
       </c>
       <c r="F28">
         <v>28951</v>
       </c>
       <c r="G28">
-        <v>0.0021566692079999995</v>
+        <v>0.0021563783949999998</v>
       </c>
       <c r="H28">
-        <v>0.0028409316624000004</v>
+        <v>0.0028405485810000003</v>
       </c>
     </row>
     <row r="29">
@@ -1396,25 +1396,25 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>https://testweb.gjerdrum.kommune.no/SysSiteAssets/bildebibliotek/logoer/gjerdrum_favicon.ico</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFredagsshopping%20(Facebook-innlegg)_8cd4.png</v>
       </c>
       <c r="C32" t="str">
-        <v>Other</v>
+        <v>Image</v>
       </c>
       <c r="D32" t="str">
-        <v>image/x-icon</v>
+        <v>image/png</v>
       </c>
       <c r="E32">
-        <v>1524</v>
+        <v>98093</v>
       </c>
       <c r="F32">
-        <v>1150</v>
+        <v>97569</v>
       </c>
       <c r="G32">
-        <v>0.000443199012</v>
+        <v>0.028526719609</v>
       </c>
       <c r="H32">
-        <v>0.0005838160536</v>
+        <v>0.0375776037702</v>
       </c>
     </row>
     <row r="33">
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFredagsshopping%20(Facebook-innlegg)_8cd4.png</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFelles%20Lytt%20og%20les%20Bok%20og%20kaffe%20fredag%2014.11%20kl.%2011%20i%20Frivilligsentralen.%20Ole%20J%C3%B8ran%20Smedstad%20snakker%20om%20Korea.%20%C3%85pent%20for%20alle%20og%20gratis%20adgang._4cc8.png</v>
       </c>
       <c r="C33" t="str">
         <v>Image</v>
@@ -1431,16 +1431,16 @@
         <v>image/png</v>
       </c>
       <c r="E33">
-        <v>98093</v>
+        <v>88984</v>
       </c>
       <c r="F33">
-        <v>97569</v>
+        <v>88372</v>
       </c>
       <c r="G33">
-        <v>0.028526719609</v>
+        <v>0.025877703991999998</v>
       </c>
       <c r="H33">
-        <v>0.0375776037702</v>
+        <v>0.03408811529760001</v>
       </c>
     </row>
     <row r="34">
@@ -1448,25 +1448,25 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fsspkalender.prokom.no%2FFileUploads%2F%C3%98vre%20Romerike%2FFelles%20Lytt%20og%20les%20Bok%20og%20kaffe%20fredag%2014.11%20kl.%2011%20i%20Frivilligsentralen.%20Ole%20J%C3%B8ran%20Smedstad%20snakker%20om%20Korea.%20%C3%85pent%20for%20alle%20og%20gratis%20adgang._4cc8.png</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D45852B90098230AAAE8E38EC4AF6035E7F021693_659176519.png%26dh%3D364%26dw%3D686</v>
       </c>
       <c r="C34" t="str">
         <v>Image</v>
       </c>
       <c r="D34" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E34">
-        <v>88985</v>
+        <v>42429</v>
       </c>
       <c r="F34">
-        <v>88372</v>
+        <v>41843</v>
       </c>
       <c r="G34">
-        <v>0.025877994805</v>
+        <v>0.012338904776999999</v>
       </c>
       <c r="H34">
-        <v>0.03408849837900001</v>
+        <v>0.016253760720600002</v>
       </c>
     </row>
     <row r="35">
@@ -1474,25 +1474,25 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D45852B90098230AAAE8E38EC4AF6035E7F021693_659176519.png%26dh%3D364%26dw%3D686</v>
+        <v>https://testweb.gjerdrum.kommune.no/SysSiteAssets/bildebibliotek/logoer/gjerdrum_favicon.ico</v>
       </c>
       <c r="C35" t="str">
-        <v>Image</v>
+        <v>Other</v>
       </c>
       <c r="D35" t="str">
-        <v>image/jpeg</v>
+        <v>image/x-icon</v>
       </c>
       <c r="E35">
-        <v>42429</v>
+        <v>1524</v>
       </c>
       <c r="F35">
-        <v>41843</v>
+        <v>1150</v>
       </c>
       <c r="G35">
-        <v>0.012338904776999999</v>
+        <v>0.000443199012</v>
       </c>
       <c r="H35">
-        <v>0.016253760720600002</v>
+        <v>0.0005838160536</v>
       </c>
     </row>
     <row r="36">
@@ -1714,16 +1714,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E44">
-        <v>121655</v>
+        <v>121617</v>
       </c>
       <c r="F44">
         <v>120985</v>
       </c>
       <c r="G44">
-        <v>0.035378855514999995</v>
+        <v>0.035367804621</v>
       </c>
       <c r="H44">
-        <v>0.046603767717</v>
+        <v>0.046589210623800004</v>
       </c>
     </row>
     <row r="45">
@@ -1896,16 +1896,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E51">
-        <v>13617</v>
+        <v>13622</v>
       </c>
       <c r="F51">
         <v>45188</v>
       </c>
       <c r="G51">
-        <v>0.003960000621</v>
+        <v>0.0039614546859999995</v>
       </c>
       <c r="H51">
-        <v>0.0052164194238</v>
+        <v>0.005218334830800001</v>
       </c>
     </row>
     <row r="52">
@@ -1922,16 +1922,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E52">
-        <v>24313</v>
+        <v>24276</v>
       </c>
       <c r="F52">
         <v>23679</v>
       </c>
       <c r="G52">
-        <v>0.007070536468999999</v>
+        <v>0.007059776387999999</v>
       </c>
       <c r="H52">
-        <v>0.0093138580782</v>
+        <v>0.0092996840664</v>
       </c>
     </row>
     <row r="53">
@@ -1948,16 +1948,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E53">
-        <v>31333</v>
+        <v>31296</v>
       </c>
       <c r="F53">
         <v>30699</v>
       </c>
       <c r="G53">
-        <v>0.009112043728999998</v>
+        <v>0.009101283647999999</v>
       </c>
       <c r="H53">
-        <v>0.012003089506200002</v>
+        <v>0.011988915494400001</v>
       </c>
     </row>
     <row r="54">
@@ -1974,16 +1974,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E54">
-        <v>12229</v>
+        <v>12192</v>
       </c>
       <c r="F54">
         <v>11602</v>
       </c>
       <c r="G54">
-        <v>0.0035563521769999993</v>
+        <v>0.003545592096</v>
       </c>
       <c r="H54">
-        <v>0.0046847024406</v>
+        <v>0.0046705284288</v>
       </c>
     </row>
     <row r="55">
@@ -2026,16 +2026,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E56">
-        <v>325276</v>
+        <v>325285</v>
       </c>
       <c r="F56">
         <v>1249958</v>
       </c>
       <c r="G56">
-        <v>0.09459448938799998</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H56">
-        <v>0.1246071854664</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="57">
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1124&amp;luid=c8853ef1-0a27-0f35-33a1-9e4dd9ac8197&amp;dnt=true&amp;prev=2496c8dc-3ee8-080f-5e71-aad4649ae7ac&amp;rnd=1620</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1175&amp;luid=6654dabb-5a48-b7dd-5042-866cb949faac&amp;dnt=true&amp;prev=0c3fc2df-51ae-73b1-8dc4-ab533cb7c75c&amp;rnd=674</v>
       </c>
       <c r="C57" t="str">
         <v>Image</v>
@@ -2104,16 +2104,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E59">
-        <v>2065</v>
+        <v>2448</v>
       </c>
       <c r="F59">
         <v>7227</v>
       </c>
       <c r="G59">
-        <v>0.0006005288449999999</v>
+        <v>0.0007119102239999999</v>
       </c>
       <c r="H59">
-        <v>0.0007910630910000001</v>
+        <v>0.0009377832672000001</v>
       </c>
     </row>
     <row r="60">
@@ -2410,16 +2410,16 @@
         <v>text/css</v>
       </c>
       <c r="E71">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="F71">
         <v>20045</v>
       </c>
       <c r="G71">
-        <v>0.000691262501</v>
+        <v>0.0006921349399999999</v>
       </c>
       <c r="H71">
-        <v>0.0009105844877999999</v>
+        <v>0.0009117337320000001</v>
       </c>
     </row>
     <row r="72">
@@ -2589,16 +2589,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>121673</v>
+        <v>121668</v>
       </c>
       <c r="F78">
         <v>120985</v>
       </c>
       <c r="G78">
-        <v>0.03538409014899999</v>
+        <v>0.035382636083999996</v>
       </c>
       <c r="H78">
-        <v>0.0466106631822</v>
+        <v>0.04660874777520001</v>
       </c>
     </row>
     <row r="79">
@@ -2710,25 +2710,25 @@
         <v>3</v>
       </c>
       <c r="B83" t="str">
-        <v>https://www.gjerdrum.kommune.no/globalassets/bilder/logo/gjerdrum-logo-1.svg</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=0&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=Gjerdrum&amp;Kunde=oru&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=100&amp;Distributor=</v>
       </c>
       <c r="C83" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D83" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E83">
-        <v>7351</v>
+        <v>79661</v>
       </c>
       <c r="F83">
-        <v>6976</v>
+        <v>923743</v>
       </c>
       <c r="G83">
-        <v>0.0021377663629999996</v>
+        <v>0.023166454392999997</v>
       </c>
       <c r="H83">
-        <v>0.0028160313714</v>
+        <v>0.0305166474054</v>
       </c>
     </row>
     <row r="84">
@@ -2736,25 +2736,25 @@
         <v>3</v>
       </c>
       <c r="B84" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt?Categories=0&amp;SearchText=&amp;DateFrom=&amp;DateTo=&amp;Municipalities=Gjerdrum&amp;Kunde=oru&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=100&amp;Distributor=</v>
+        <v>https://siteimproveanalytics.com/js/siteanalyze_6019370.js</v>
       </c>
       <c r="C84" t="str">
-        <v>Fetch</v>
+        <v>Script</v>
       </c>
       <c r="D84" t="str">
-        <v>application/json</v>
+        <v>application/javascript</v>
       </c>
       <c r="E84">
-        <v>79660</v>
+        <v>13624</v>
       </c>
       <c r="F84">
-        <v>923743</v>
+        <v>45188</v>
       </c>
       <c r="G84">
-        <v>0.023166163579999996</v>
+        <v>0.003962036312</v>
       </c>
       <c r="H84">
-        <v>0.030516264324000005</v>
+        <v>0.0052191009936</v>
       </c>
     </row>
     <row r="85">
@@ -2762,25 +2762,25 @@
         <v>3</v>
       </c>
       <c r="B85" t="str">
-        <v>https://siteimproveanalytics.com/js/siteanalyze_6019370.js</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F19b807c78b44443c92d2f0e9716c6a7e%2Faretsarkiv2025-3.jpg</v>
       </c>
       <c r="C85" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D85" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E85">
-        <v>13619</v>
+        <v>24032</v>
       </c>
       <c r="F85">
-        <v>45188</v>
+        <v>23679</v>
       </c>
       <c r="G85">
-        <v>0.003960582247</v>
+        <v>0.006988818015999999</v>
       </c>
       <c r="H85">
-        <v>0.0052171855866</v>
+        <v>0.0092062122048</v>
       </c>
     </row>
     <row r="86">
@@ -2788,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F19b807c78b44443c92d2f0e9716c6a7e%2Faretsarkiv2025-3.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F02bd098ec5014db0902a880ca003e948%2Fgjerdrum-kommune-beskjart-jpeg_baw_029.jpg</v>
       </c>
       <c r="C86" t="str">
         <v>Image</v>
@@ -2797,16 +2797,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E86">
-        <v>24280</v>
+        <v>31076</v>
       </c>
       <c r="F86">
-        <v>23679</v>
+        <v>30699</v>
       </c>
       <c r="G86">
-        <v>0.007060939639999999</v>
+        <v>0.009037304787999998</v>
       </c>
       <c r="H86">
-        <v>0.009301216392</v>
+        <v>0.011904637586400002</v>
       </c>
     </row>
     <row r="87">
@@ -2814,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2F02bd098ec5014db0902a880ca003e948%2Fgjerdrum-kommune-beskjart-jpeg_baw_029.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2Fa9475d6a714946c4875e49a935b419e0%2Fparagraph-684509_1280.jpg</v>
       </c>
       <c r="C87" t="str">
         <v>Image</v>
@@ -2823,16 +2823,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E87">
-        <v>31297</v>
+        <v>11939</v>
       </c>
       <c r="F87">
-        <v>30699</v>
+        <v>11602</v>
       </c>
       <c r="G87">
-        <v>0.009101574460999998</v>
+        <v>0.0034720164069999993</v>
       </c>
       <c r="H87">
-        <v>0.011989298575800002</v>
+        <v>0.0045736088346</v>
       </c>
     </row>
     <row r="88">
@@ -2840,25 +2840,25 @@
         <v>3</v>
       </c>
       <c r="B88" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.gjerdrum.kommune.no%2F%2Fcontentassets%2Fa9475d6a714946c4875e49a935b419e0%2Fparagraph-684509_1280.jpg</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
       </c>
       <c r="C88" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D88" t="str">
-        <v>image/jpeg</v>
+        <v>text/css</v>
       </c>
       <c r="E88">
-        <v>12229</v>
+        <v>22174</v>
       </c>
       <c r="F88">
-        <v>11602</v>
+        <v>257200</v>
       </c>
       <c r="G88">
-        <v>0.0035563521769999993</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H88">
-        <v>0.0046847024406</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="89">
@@ -2866,25 +2866,25 @@
         <v>3</v>
       </c>
       <c r="B89" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
+        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
       </c>
       <c r="C89" t="str">
-        <v>Fetch</v>
+        <v>Script</v>
       </c>
       <c r="D89" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E89">
-        <v>22174</v>
+        <v>325286</v>
       </c>
       <c r="F89">
-        <v>257200</v>
+        <v>1249958</v>
       </c>
       <c r="G89">
-        <v>0.006448487461999999</v>
+        <v>0.09459739751799999</v>
       </c>
       <c r="H89">
-        <v>0.008494446963600001</v>
+        <v>0.1246110162804</v>
       </c>
     </row>
     <row r="90">
@@ -2892,25 +2892,25 @@
         <v>3</v>
       </c>
       <c r="B90" t="str">
-        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
+        <v>https://www.gjerdrum.kommune.no/globalassets/bilder/logo/gjerdrum-logo-1.svg</v>
       </c>
       <c r="C90" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D90" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E90">
-        <v>325285</v>
+        <v>7351</v>
       </c>
       <c r="F90">
-        <v>1249958</v>
+        <v>6976</v>
       </c>
       <c r="G90">
-        <v>0.09459710670499999</v>
+        <v>0.0021377663629999996</v>
       </c>
       <c r="H90">
-        <v>0.124610633199</v>
+        <v>0.0028160313714</v>
       </c>
     </row>
     <row r="91">
@@ -2918,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1183&amp;luid=2dc17396-0163-4206-0a24-a141e5e6887f&amp;dnt=true&amp;prev=4a670bfe-3235-f522-c114-6ded6d2130a3&amp;rnd=96283</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.gjerdrum.kommune.no%2F&amp;title=Forsiden%20-%20gjerdrum%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1104&amp;luid=89f3b5a9-5ed6-3868-c351-148ac1617108&amp;dnt=true&amp;prev=1fbce2f9-aee7-d250-d5d0-7a137dcd2744&amp;rnd=16169</v>
       </c>
       <c r="C91" t="str">
         <v>Image</v>
@@ -2927,16 +2927,16 @@
         <v>image/gif</v>
       </c>
       <c r="E91">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F91">
         <v>34</v>
       </c>
       <c r="G91">
-        <v>0.00006107072999999999</v>
+        <v>0.000061652356</v>
       </c>
       <c r="H91">
-        <v>0.00008044709400000001</v>
+        <v>0.00008121325679999999</v>
       </c>
     </row>
     <row r="92">
@@ -2979,16 +2979,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E93">
-        <v>2065</v>
+        <v>2448</v>
       </c>
       <c r="F93">
         <v>7227</v>
       </c>
       <c r="G93">
-        <v>0.0006005288449999999</v>
+        <v>0.0007119102239999999</v>
       </c>
       <c r="H93">
-        <v>0.0007910630910000001</v>
+        <v>0.0009377832672000001</v>
       </c>
     </row>
     <row r="94">
@@ -3155,16 +3155,16 @@
         <v>image/png</v>
       </c>
       <c r="E100">
-        <v>98149</v>
+        <v>97921</v>
       </c>
       <c r="F100">
         <v>97569</v>
       </c>
       <c r="G100">
-        <v>0.028543005136999994</v>
+        <v>0.028476699773</v>
       </c>
       <c r="H100">
-        <v>0.0375990563286</v>
+        <v>0.037511713769400004</v>
       </c>
     </row>
     <row r="101">
@@ -3181,16 +3181,16 @@
         <v>image/png</v>
       </c>
       <c r="E101">
-        <v>89031</v>
+        <v>88802</v>
       </c>
       <c r="F101">
         <v>88372</v>
       </c>
       <c r="G101">
-        <v>0.025891372202999998</v>
+        <v>0.025824776025999998</v>
       </c>
       <c r="H101">
-        <v>0.0341061201234</v>
+        <v>0.0340183944828</v>
       </c>
     </row>
     <row r="102">
@@ -3207,16 +3207,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E102">
-        <v>42442</v>
+        <v>42370</v>
       </c>
       <c r="F102">
         <v>41843</v>
       </c>
       <c r="G102">
-        <v>0.012342685345999999</v>
+        <v>0.012321746809999999</v>
       </c>
       <c r="H102">
-        <v>0.0162587407788</v>
+        <v>0.016231158918</v>
       </c>
     </row>
     <row r="103">
@@ -3295,7 +3295,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>237362</v>
+        <v>215646</v>
       </c>
       <c r="D3">
         <v>1323141</v>
@@ -3309,7 +3309,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>2310228</v>
+        <v>2311012</v>
       </c>
       <c r="D4">
         <v>8553867</v>
@@ -3337,7 +3337,7 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>1360011</v>
+        <v>1358570</v>
       </c>
       <c r="D6">
         <v>1343319</v>
@@ -3351,7 +3351,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>305502</v>
+        <v>305503</v>
       </c>
       <c r="D7">
         <v>3542829</v>
@@ -3379,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>22248</v>
+        <v>22247</v>
       </c>
       <c r="D9">
         <v>86853</v>
@@ -3446,13 +3446,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1538803</v>
+        <v>1517080</v>
       </c>
       <c r="C2">
-        <v>0.447503916839</v>
+        <v>0.44118658603999994</v>
       </c>
       <c r="D2">
-        <v>0.5894868075642001</v>
+        <v>0.5811651303120001</v>
       </c>
     </row>
     <row r="3">
@@ -3460,13 +3460,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1516835</v>
+        <v>1517083</v>
       </c>
       <c r="C3">
-        <v>0.441115336855</v>
+        <v>0.441187458479</v>
       </c>
       <c r="D3">
-        <v>0.5810712753690002</v>
+        <v>0.5811662795562</v>
       </c>
     </row>
     <row r="4">
@@ -3474,13 +3474,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1516883</v>
+        <v>1515985</v>
       </c>
       <c r="C4">
-        <v>0.44112929587899996</v>
+        <v>0.44086814580499994</v>
       </c>
       <c r="D4">
-        <v>0.5810896632761999</v>
+        <v>0.5807456561790001</v>
       </c>
     </row>
     <row r="5">
@@ -3488,13 +3488,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1516883</v>
+        <v>1517080</v>
       </c>
       <c r="C5">
-        <v>0.44112929587899996</v>
+        <v>0.44118658603999994</v>
       </c>
       <c r="D5">
-        <v>0.5810896632761999</v>
+        <v>0.5811651303120001</v>
       </c>
     </row>
   </sheetData>
